--- a/plan/test/repository/単体テスト仕様書-ProductRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-ProductRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF392238-9397-40DE-942C-C0E88EF736D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA6A090-9F44-435B-B449-3BC3EE51C170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>作成者</t>
   </si>
@@ -136,62 +136,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>次のデータを持つ部署オブジェクトがデータベースに登録できること
-部門ID: 5
-部門名: システム開発部</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ツギノ </t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">モツ </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">ブショ </t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t xml:space="preserve">トウロク </t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t xml:space="preserve">ブモン </t>
-    </rPh>
-    <rPh sb="40" eb="43">
-      <t xml:space="preserve">ブモンメイ </t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t xml:space="preserve">カイハツ </t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t xml:space="preserve">ブ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースの部署テーブルに左記のデータのレコードが登録されていること</t>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">ブショ </t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">サキ </t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t xml:space="preserve">トウロク </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースの部署テーブルのレコードが全件取得できること</t>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">ブショ </t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">ゼンケン </t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t xml:space="preserve">シュトク </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>FS</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -219,36 +163,175 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>insert(customer:Customer):</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">当該メソッドを実行
-customer(
-customerId=
+    <t>repository/ProductRepository.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>delete(productId:Integer):</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectByCategoryId(categoryId:Integer)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>update(product:Product)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>insert(product:Product)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">下記を引数に当該メソッドを実行
+product(
+prodId = 26, prodName = "万年筆", price = 1000, imageUrl = nnn.jpg,　prodCategory = 3, prodStock = 0)
 </t>
     <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t xml:space="preserve">トウガイ </t>
     </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ジッコウ </t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>マンネンヒツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記を引数に当該メソッドを実行
+prodId = 1</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">トウガイ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ジッコウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">下記を引数に当該メソッドを実行
+product(
+prodId = 2, prodName = "水性ボールペン（赤）", price = 1000, imageUrl = red_pen_w.jpg,　prodCategory = 1, prodStock = 0)
+</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">トウガイ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ジッコウ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>スイセイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースの商品テーブルに「水性ボールペン（赤）」のレコードが左記のデータに更新されていること</t>
+    <rPh sb="15" eb="17">
+      <t>スイセイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記を引数に当該メソッドを実行
+categoryId = 1</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品テーブルからカテゴリIDが１である文房具の商品データが引き出せていること</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ブンボウグ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースの商品テーブルから「水性ボールペン(黒)」のデータのレコードでdelete_flagが1となっていること</t>
     <rPh sb="7" eb="9">
-      <t xml:space="preserve">ジッコウ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>repository/ProductRepository.java</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>delete(productId:Integer):</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>selectByCategoryId(categoryId:Integer)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>update(product:Product)</t>
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>スイセイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースの商品テーブルに左記のデータのレコードが登録されていること
+データベースの商品在庫カテゴリテーブルに先データのレコードが追加されていること。</t>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>ショウヒンザイコ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -451,11 +534,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,30 +571,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -843,7 +926,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="H7" sqref="H7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -860,56 +943,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -947,20 +1030,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -970,82 +1053,86 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
+      <c r="C5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="22"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -1057,18 +1144,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
@@ -1077,6 +1168,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C8:G8"/>
@@ -1089,14 +1188,6 @@
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/repository/単体テスト仕様書-ProductRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-ProductRepository.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA6A090-9F44-435B-B449-3BC3EE51C170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D354BCB-FB99-4B8E-98CE-4A0ECD470E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductRepository" sheetId="166" r:id="rId1"/>
@@ -183,28 +183,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">下記を引数に当該メソッドを実行
-product(
-prodId = 26, prodName = "万年筆", price = 1000, imageUrl = nnn.jpg,　prodCategory = 3, prodStock = 0)
-</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">トウガイ </t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t xml:space="preserve">ジッコウ </t>
-    </rPh>
-    <rPh sb="50" eb="53">
-      <t>マンネンヒツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>下記を引数に当該メソッドを実行
 prodId = 1</t>
     <rPh sb="0" eb="2">
@@ -331,6 +309,28 @@
     </rPh>
     <rPh sb="66" eb="68">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">下記を引数に当該メソッドを実行
+product(
+prodId = null, prodName = "万年筆", price = 1000, imageUrl = nnn.jpg,　prodCategory = 3, prodStock = 0)
+</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">トウガイ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ジッコウ </t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>マンネンヒツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -534,14 +534,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -552,25 +564,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -943,25 +943,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -976,23 +976,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1030,20 +1030,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="25" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1053,10 +1053,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="15"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
@@ -1065,25 +1065,25 @@
       <c r="B5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
@@ -1092,25 +1092,25 @@
       <c r="B6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
+      <c r="C6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="11">
@@ -1119,25 +1119,25 @@
       <c r="B7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="24"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:17" ht="60" customHeight="1">
       <c r="A8" s="11">
@@ -1146,36 +1146,28 @@
       <c r="B8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C8:G8"/>
@@ -1188,6 +1180,14 @@
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/repository/単体テスト仕様書-ProductRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-ProductRepository.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D354BCB-FB99-4B8E-98CE-4A0ECD470E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61C0857-EE80-4827-A3BD-8CB11CD600A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductRepository" sheetId="166" r:id="rId1"/>
@@ -167,10 +167,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>delete(productId:Integer):</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>selectByCategoryId(categoryId:Integer)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -332,6 +328,10 @@
     <rPh sb="52" eb="55">
       <t>マンネンヒツ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>updateDeleteFlag(productId:Integer):</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -534,18 +534,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -553,24 +571,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:L7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -943,25 +943,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -976,23 +976,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1030,20 +1030,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="19" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1053,121 +1053,129 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+        <v>30</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" ht="60" customHeight="1">
       <c r="A8" s="11">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="16"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C8:G8"/>
@@ -1180,14 +1188,6 @@
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/repository/単体テスト仕様書-ProductRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-ProductRepository.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61C0857-EE80-4827-A3BD-8CB11CD600A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5B48F9-D7D8-4E3A-B42B-7B0AF2FBEEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductRepository" sheetId="166" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>作成者</t>
   </si>
@@ -332,6 +332,51 @@
   </si>
   <si>
     <t>updateDeleteFlag(productId:Integer):</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectByProductId(productId:Integer)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記を引数に当該メソッドを実行
+productId = 1</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品テーブルから商品IDが１であるの商品データが引き出せていること
+prodName：水性ボールペン(黒)
+price：120
+quantity：10
+categoryName：文房具
+imageUrl：black_pen_w.jpg</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ダ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -534,14 +579,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -552,25 +609,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -943,25 +988,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -976,23 +1021,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1030,20 +1075,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="25" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1053,10 +1098,10 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="15"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
@@ -1065,25 +1110,25 @@
       <c r="B5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
@@ -1092,25 +1137,25 @@
       <c r="B6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="11">
@@ -1119,25 +1164,25 @@
       <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="24"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:17" ht="60" customHeight="1">
       <c r="A8" s="11">
@@ -1146,36 +1191,58 @@
       <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="18" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" ht="94.5" customHeight="1">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
+  <mergeCells count="23">
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C8:G8"/>
@@ -1188,6 +1255,14 @@
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/repository/単体テスト仕様書-ProductRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-ProductRepository.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5B48F9-D7D8-4E3A-B42B-7B0AF2FBEEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C3A2DD-0628-4E37-8710-628DD11C755C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="0" windowWidth="14400" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductRepository" sheetId="166" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ProductRepository!$A$1:$Q$10</definedName>
     <definedName name="範囲１" localSheetId="0">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>作成者</t>
   </si>
@@ -168,10 +169,6 @@
   </si>
   <si>
     <t>selectByCategoryId(categoryId:Integer)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>update(product:Product)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -192,47 +189,6 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t xml:space="preserve">ジッコウ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">下記を引数に当該メソッドを実行
-product(
-prodId = 2, prodName = "水性ボールペン（赤）", price = 1000, imageUrl = red_pen_w.jpg,　prodCategory = 1, prodStock = 0)
-</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">トウガイ </t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t xml:space="preserve">ジッコウ </t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>スイセイ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>アカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースの商品テーブルに「水性ボールペン（赤）」のレコードが左記のデータに更新されていること</t>
-    <rPh sb="15" eb="17">
-      <t>スイセイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -376,6 +332,53 @@
     </rPh>
     <rPh sb="26" eb="27">
       <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectAll()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記を引数に当該メソッドを実行</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースの商品テーブルからすべてのレコードのデータが引き出せていること</t>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectByPage(pageable:Pageable)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>当該メソッドを実行</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -580,16 +583,34 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -598,24 +619,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -968,9 +971,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9:G9"/>
     </sheetView>
   </sheetViews>
@@ -988,25 +991,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1021,23 +1024,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1075,20 +1078,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="19" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1098,91 +1101,91 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="C6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
     </row>
-    <row r="7" spans="1:17" ht="60" customHeight="1">
+    <row r="7" spans="1:17" ht="94.5" customHeight="1">
       <c r="A7" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+        <v>28</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17" ht="60" customHeight="1">
       <c r="A8" s="11">
@@ -1191,78 +1194,108 @@
       <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="C8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="16"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="19"/>
     </row>
-    <row r="9" spans="1:17" ht="94.5" customHeight="1">
+    <row r="9" spans="1:17" ht="61.5" customHeight="1">
       <c r="A9" s="11">
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="22" t="s">
+      <c r="C9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="16"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" ht="53.5" customHeight="1">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
+  <mergeCells count="26">
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H8:L8"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/repository/単体テスト仕様書-ProductRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-ProductRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C3A2DD-0628-4E37-8710-628DD11C755C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5FD91E-E317-489A-8020-921BB59D583C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="0" windowWidth="14400" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>作成者</t>
   </si>
@@ -337,22 +337,6 @@
   </si>
   <si>
     <t>selectAll()</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>下記を引数に当該メソッドを実行</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウガイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジッコウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -974,7 +958,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:G9"/>
+      <selection activeCell="C10" sqref="C10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1222,14 +1206,14 @@
         <v>31</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
       <c r="H9" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -1246,18 +1230,14 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="H10" s="15"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>

--- a/plan/test/repository/単体テスト仕様書-ProductRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-ProductRepository.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5FD91E-E317-489A-8020-921BB59D583C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16B64E9-F7DE-4A20-91C9-8F8E895B9E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="0" windowWidth="14400" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductRepository" sheetId="166" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>作成者</t>
   </si>
@@ -134,10 +134,6 @@
     <rPh sb="3" eb="5">
       <t xml:space="preserve">タイショウ </t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FS</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -366,12 +362,68 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>日本証券テクノロジー</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンショウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pageable = PageRequest.of(ページナンバー1,ページサイズ 3)
+productCategory=1
+で当該メソッドを実行</t>
+    <rPh sb="64" eb="66">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索画面では、1ページに商品が５つ表示される。
+productCategory＝１は１４個あるので、商品ページは３で返されること</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -419,6 +471,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -522,7 +581,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -566,6 +625,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -575,34 +649,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -957,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:G10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -970,61 +1032,62 @@
     <col min="8" max="12" width="7.1796875" style="4" customWidth="1"/>
     <col min="13" max="13" width="8.36328125" style="4" customWidth="1"/>
     <col min="14" max="15" width="9.6328125" style="4" customWidth="1"/>
-    <col min="16" max="17" width="12.36328125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.36328125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" style="4" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1034,7 +1097,9 @@
       <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="11.25" customHeight="1">
       <c r="A3" s="7"/>
@@ -1062,20 +1127,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="25" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1085,186 +1150,211 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="23"/>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="28">
+        <v>45503</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
+        <v>26</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="28">
+        <v>45503</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="1:17" ht="94.5" customHeight="1">
       <c r="A7" s="11">
         <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="19"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="28">
+        <v>45503</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:17" ht="60" customHeight="1">
       <c r="A8" s="11">
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="19"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="28">
+        <v>45503</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="27"/>
     </row>
     <row r="9" spans="1:17" ht="61.5" customHeight="1">
       <c r="A9" s="11">
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="19"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="28">
+        <v>45503</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27"/>
     </row>
     <row r="10" spans="1:17" ht="53.5" customHeight="1">
       <c r="A10" s="11">
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="19"/>
+        <v>32</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="28">
+        <v>45503</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="F2:M2"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="P10:Q10"/>
@@ -1276,6 +1366,21 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H8:L8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
